--- a/gaza_injuries_fc/inputs/gaza_noninjury_to_date.xlsx
+++ b/gaza_injuries_fc/inputs/gaza_noninjury_to_date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_injuries_fc\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_injuries_fc\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A320B802-B925-441F-AF9B-FE634C31F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525C4FF-FE43-4F27-B2B9-EB8F199E2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_date" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -199,11 +199,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -242,7 +240,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blue Green">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,34 +248,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="373545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="CEDBE6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="3494BA"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="58B6C0"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="75BDA7"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="7A8C8E"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="84ACB6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="2683C6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="9F6715"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -504,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,7 +619,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>45206</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -633,12 +631,12 @@
       <c r="D7" s="6">
         <v>43.791666666666664</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>45237</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -650,12 +648,12 @@
       <c r="D8" s="6">
         <v>43.791666666666664</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>45267</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -667,12 +665,12 @@
       <c r="D9" s="6">
         <v>43.791666666666671</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>45298</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -684,7 +682,7 @@
       <c r="D10" s="6">
         <v>43.791666666666657</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -760,7 +758,7 @@
       <c r="A15" s="7">
         <v>45206</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="6">
@@ -896,7 +894,7 @@
       <c r="A23" s="4">
         <v>45206</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6">
@@ -961,10 +959,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>45206</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6">
@@ -973,12 +971,12 @@
       <c r="D27" s="6">
         <v>1.18059534378479</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="4">
         <v>45237</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -990,7 +988,7 @@
       <c r="D28" s="6">
         <v>1.7561615917214399</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1097,10 +1095,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
-        <v>45206</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="6">
@@ -1109,12 +1107,12 @@
       <c r="D35" s="6">
         <v>10.971652144264</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="4">
         <v>45237</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1126,7 +1124,7 @@
       <c r="D36" s="6">
         <v>17.250375254993049</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1165,7 +1163,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="4">
         <v>45206</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1177,12 +1175,12 @@
       <c r="D39" s="6">
         <v>0.87274110673365501</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="4">
         <v>45237</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1194,7 +1192,7 @@
       <c r="D40" s="6">
         <v>1.4343214313684549</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1369,7 +1367,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
+      <c r="A51" s="4">
         <v>45206</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1381,12 +1379,12 @@
       <c r="D51" s="6">
         <v>1.7999007904035149</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
+      <c r="A52" s="4">
         <v>45237</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1398,7 +1396,7 @@
       <c r="D52" s="6">
         <v>3.1901449612502599</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1573,7 +1571,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+      <c r="A63" s="4">
         <v>45206</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -1585,12 +1583,12 @@
       <c r="D63" s="6">
         <v>2.6384384276378152</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+      <c r="A64" s="4">
         <v>45237</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -1602,7 +1600,7 @@
       <c r="D64" s="6">
         <v>5.4778879707436499</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1777,7 +1775,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+      <c r="A75" s="4">
         <v>45206</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1789,7 +1787,7 @@
       <c r="D75" s="6">
         <v>3.357899950038</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1981,7 +1979,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
+      <c r="A87" s="4">
         <v>45206</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1993,7 +1991,7 @@
       <c r="D87" s="6">
         <v>1.7629135060550101</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2117,7 +2115,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
+      <c r="A95" s="4">
         <v>45206</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -2129,7 +2127,7 @@
       <c r="D95" s="6">
         <v>5.6099998922715502</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2253,7 +2251,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="11">
+      <c r="A103" s="4">
         <v>45206</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -2265,7 +2263,7 @@
       <c r="D103" s="6">
         <v>8.5315904885531495</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2389,7 +2387,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="11">
+      <c r="A111" s="4">
         <v>45206</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -2401,7 +2399,7 @@
       <c r="D111" s="6">
         <v>12.516463161241051</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2525,7 +2523,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="11">
+      <c r="A119" s="4">
         <v>45206</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -2537,7 +2535,7 @@
       <c r="D119" s="6">
         <v>17.071372109396449</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="E119" s="3" t="s">
         <v>5</v>
       </c>
     </row>
